--- a/excel/excel-training/Level 2/INDEX MATCH Explained - BEGIN.xlsx
+++ b/excel/excel-training/Level 2/INDEX MATCH Explained - BEGIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonac\Dropbox\Excel Campus\Courses\Elevate\Course Files\Stage 2\Stage 2 Final Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802A7179-FEE3-44EC-A148-2A267E8EE7D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6165005C-9F5B-3544-B5C0-3CD74C65C0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="19" r:id="rId1"/>
@@ -49,8 +49,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="106">
   <si>
     <t>INDEX Definition</t>
   </si>
@@ -415,6 +437,21 @@
   </si>
   <si>
     <t>INDEX &amp; MATCH Lookup</t>
+  </si>
+  <si>
+    <t>Item:</t>
+  </si>
+  <si>
+    <t>Size:</t>
+  </si>
+  <si>
+    <t>Price:</t>
+  </si>
+  <si>
+    <t>caffe latte</t>
+  </si>
+  <si>
+    <t>venti</t>
   </si>
 </sst>
 </file>
@@ -690,7 +727,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -789,21 +826,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="medium">
-        <color theme="9" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -814,33 +836,32 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
@@ -848,8 +869,6 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -864,31 +883,29 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -899,8 +916,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -909,29 +926,20 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="8" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="6" builtinId="3"/>
@@ -2839,148 +2847,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="4.19921875" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" style="47" customWidth="1"/>
+    <col min="4" max="4" width="15.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="58" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="1:11" s="53" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="60"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="56">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="51">
         <v>1</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="52" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="56">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="51">
         <v>2</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="56">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="51">
         <v>3</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="56">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="51">
         <v>4</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="56">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="51">
         <v>5</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="52" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="56">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="51">
         <v>6</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="56">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="51">
         <v>7</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="56">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="51">
         <v>8</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="56">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="51">
         <v>9</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="52" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="56">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B13" s="51">
         <v>10</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B14" s="56">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B14" s="51">
         <v>11</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="52" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="56">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B15" s="51">
         <v>12</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="52" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="56" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="56" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="48" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3010,162 +3016,206 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="202" zoomScaleNormal="202" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="5" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="9.19921875" style="5" customWidth="1"/>
+    <col min="7" max="9" width="9.19921875" style="5"/>
+    <col min="10" max="10" width="10.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="7" t="s">
+      <c r="I3" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>2.95</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31">
         <v>3.75</v>
       </c>
-      <c r="E4" s="34">
+      <c r="F4" s="31">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="7" t="s">
+      <c r="I4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>2.95</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31">
         <v>3.65</v>
       </c>
-      <c r="E5" s="34">
+      <c r="F5" s="31">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="7" t="s">
+      <c r="I5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="5">
+        <f>INDEX($C$4:$F$8,MATCH($J$3,$B$4:$B$8,0),MATCH($J$4,$C$3:$F$3,0))</f>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>3.75</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31">
         <v>3.95</v>
       </c>
-      <c r="E6" s="34">
+      <c r="F6" s="31">
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>3.25</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31">
         <v>3.95</v>
       </c>
-      <c r="E7" s="34">
+      <c r="F7" s="31">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>3.45</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E8" s="34">
+      <c r="F8" s="31">
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:7" s="37" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:10" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="46">
+        <f>MATCH(B12,$B$4:$B$8,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="5" cm="1">
+        <f t="array" ref="C13">INDEX($E$4:$E$8,C12)</f>
+        <v>3.95</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="5">
+        <f>INDEX($E$4:$E$8,MATCH(B14,$B$4:$B$8,0))</f>
+        <v>3.95</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="5">
+        <f>VLOOKUP(B15,$B$4:$F$8,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3187,134 +3237,134 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="5" customWidth="1"/>
-    <col min="3" max="6" width="9.140625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.59765625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" style="5" customWidth="1"/>
+    <col min="3" max="6" width="9.19921875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>2.95</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31">
         <v>3.75</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="31">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>2.95</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31">
         <v>3.65</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="31">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>3.75</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31">
         <v>3.95</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="31">
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>3.25</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34">
+      <c r="D7" s="31"/>
+      <c r="E7" s="31">
         <v>3.95</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>3.45</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31">
         <v>4.1500000000000004</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-    </row>
-    <row r="11" spans="1:8" s="37" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" s="34" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
@@ -3322,7 +3372,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
@@ -3347,18 +3397,18 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="72.28515625" customWidth="1"/>
+    <col min="2" max="2" width="72.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="2:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="31"/>
+    <row r="9" spans="2:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="B9" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3374,277 +3424,277 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="17" style="9" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.19921875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>10001</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>100000</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>10002</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="17">
         <v>150000</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>10003</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>200000</v>
       </c>
-      <c r="H6" s="22">
+      <c r="H6" s="21">
         <v>35000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>10004</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>250000</v>
       </c>
-      <c r="H7" s="22">
+      <c r="H7" s="21">
         <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>10005</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>300000</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H8" s="21">
         <v>45000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
         <v>10006</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <v>350000</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>10007</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="21">
         <v>400000</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>55000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>10008</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>450000</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3659,317 +3709,323 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4358773-2DB0-4BE8-BA53-28E73D1C09A8}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="63" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="63" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="63" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="63" customWidth="1"/>
-    <col min="6" max="6" width="5.5703125" style="63" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="63" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" style="63" customWidth="1"/>
-    <col min="11" max="12" width="9.140625" style="63" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="63"/>
+    <col min="1" max="1" width="5.796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="5" customWidth="1"/>
+    <col min="11" max="12" width="9.19921875" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="64" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="G3" s="64" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="G3" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-    </row>
-    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66">
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59">
         <v>1</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="59">
         <v>2</v>
       </c>
-      <c r="E4" s="66">
+      <c r="E4" s="59">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="67" t="s">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="59">
         <v>1</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="69">
+      <c r="C6" s="61">
         <v>2.95</v>
       </c>
-      <c r="D6" s="69">
+      <c r="D6" s="61">
         <v>3.75</v>
       </c>
-      <c r="E6" s="69">
+      <c r="E6" s="61">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="62">
         <f>INDEX($C$6:$E$14,4,2)</f>
         <v>3.95</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="59">
         <v>2</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="61">
         <v>2.95</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="61">
         <v>3.65</v>
       </c>
-      <c r="E7" s="69">
+      <c r="E7" s="61">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="72">
+      <c r="J7" s="63">
         <f>MATCH(H7,$B$6:$B$14,0)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="59">
         <v>3</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="69">
+      <c r="C8" s="61">
         <v>3.75</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="61">
         <v>3.95</v>
       </c>
-      <c r="E8" s="69">
+      <c r="E8" s="61">
         <v>4.25</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="63">
+      <c r="J8" s="5">
         <f>INDEX($C$6:$E$14,MATCH(H8,$B$6:$B$14,0),2)</f>
         <v>3.95</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="59">
         <v>4</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="61">
         <v>3.25</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="61">
         <v>3.95</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="61">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="66">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="59">
         <v>5</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="69">
+      <c r="C10" s="61">
         <v>3.45</v>
       </c>
-      <c r="D10" s="69">
+      <c r="D10" s="61">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E10" s="69">
+      <c r="E10" s="61">
         <v>4.55</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="72"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="66">
+      <c r="J10" s="63">
+        <f>MATCH(I10,$C$5:$E$5,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="59">
         <v>6</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="61">
         <v>2</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="61">
         <v>2.4</v>
       </c>
-      <c r="E11" s="69">
+      <c r="E11" s="61">
         <v>2.75</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="70" t="s">
+      <c r="H11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="73"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66">
+      <c r="J11" s="64">
+        <f>INDEX($C$6:$E$14,MATCH(H11,$B$6:$B$14,0),MATCH(I11,$C$5:$E$5,0))</f>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="59">
         <v>7</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="61">
         <v>3.95</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="61">
         <v>4.75</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="61">
         <v>5.15</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="59">
         <v>8</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="69">
+      <c r="C13" s="61">
         <v>2.25</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="61">
         <v>2.5</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="61">
         <v>2.75</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="66">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="59">
         <v>9</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="69">
+      <c r="C14" s="61">
         <v>1.75</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="61">
         <v>1.95</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="61">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" x14ac:dyDescent="0.25"/>
-    <row r="18" x14ac:dyDescent="0.25"/>
-    <row r="19" x14ac:dyDescent="0.25"/>
-    <row r="20" x14ac:dyDescent="0.25"/>
-    <row r="21" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="59"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" x14ac:dyDescent="0.2"/>
+    <row r="18" x14ac:dyDescent="0.2"/>
+    <row r="19" x14ac:dyDescent="0.2"/>
+    <row r="20" x14ac:dyDescent="0.2"/>
+    <row r="21" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I7 I10:I11" xr:uid="{499D08D0-18D6-45A9-9BBF-5E43EEE9FDB9}">
@@ -3995,435 +4051,433 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="12.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="2" width="2.796875" customWidth="1"/>
+    <col min="3" max="3" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" customWidth="1"/>
+    <col min="8" max="8" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
+    <row r="3" spans="1:6" ht="14" x14ac:dyDescent="0.2">
+      <c r="A3" s="50"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C6" s="9" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C7" s="11">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C7" s="10">
         <v>10001</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C8" s="15">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C8" s="14">
         <v>10002</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C9" s="19">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C9" s="18">
         <v>10003</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C10" s="19">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C10" s="18">
         <v>10004</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C11" s="19">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C11" s="18">
         <v>10005</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C12" s="19">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C12" s="18">
         <v>10006</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C13" s="19">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C13" s="18">
         <v>10007</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="19">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="C14" s="18">
         <v>10008</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:11" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="27">
         <v>2</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27"/>
-      <c r="B19" s="25"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="24" t="s">
+    <row r="19" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="23"/>
+    </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="C20" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C21" s="9" t="s">
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C22" s="11">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C22" s="10">
         <v>10001</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>10001</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C23" s="15">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C23" s="14">
         <v>10002</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>10002</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="16" t="s">
+      <c r="J23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C24" s="19">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C24" s="18">
         <v>10003</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <v>10003</v>
       </c>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="20" t="s">
+      <c r="J24" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C25" s="19">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C25" s="18">
         <v>10004</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="18">
         <v>10004</v>
       </c>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J25" s="20" t="s">
+      <c r="J25" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" s="19">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C26" s="18">
         <v>10005</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="18">
         <v>10005</v>
       </c>
-      <c r="I26" s="20" t="s">
+      <c r="I26" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="20" t="s">
+      <c r="K26" s="19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C27" s="19">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C27" s="18">
         <v>10006</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="18">
         <v>10006</v>
       </c>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C28" s="19">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C28" s="18">
         <v>10007</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="18">
         <v>10007</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K28" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="C29" s="19">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="C29" s="18">
         <v>10008</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="18">
         <v>10008</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="20" t="s">
+      <c r="K29" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2"/>
-    <row r="33" x14ac:dyDescent="0.2"/>
-    <row r="34" x14ac:dyDescent="0.2"/>
-    <row r="35" x14ac:dyDescent="0.2"/>
-    <row r="36" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14" x14ac:dyDescent="0.2"/>
     <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4456,193 +4510,193 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="25.59765625" style="5" customWidth="1"/>
+    <col min="2" max="5" width="9.19921875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="31">
         <v>2.95</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31">
         <v>3.75</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="31">
         <v>2.95</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34">
+      <c r="C5" s="31"/>
+      <c r="D5" s="31">
         <v>3.65</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="31">
         <v>3.75</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31">
         <v>3.95</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="31">
         <v>3.25</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="31"/>
+      <c r="D7" s="31">
         <v>3.95</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="31">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="31">
         <v>3.45</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="31">
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="31">
         <v>2</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31">
         <v>2.4</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="31">
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="31">
         <v>3.95</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31">
         <v>4.75</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <v>5.15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="31">
         <v>2.25</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34">
+      <c r="C11" s="31"/>
+      <c r="D11" s="31">
         <v>2.5</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="31">
         <v>2.75</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="31">
         <v>1.75</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34">
+      <c r="C12" s="31"/>
+      <c r="D12" s="31">
         <v>1.95</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="31">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:5" s="37" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+    </row>
+    <row r="15" spans="1:5" s="34" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="35">
         <f>VLOOKUP(A16,A4:E12,3,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4656,146 +4710,143 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="44" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="44" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="1" width="16.3984375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="19.796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.19921875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.19921875" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="37" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.19921875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="42" t="e">
+      <c r="B4" s="38" t="e">
         <f>VLOOKUP(A4,A9:B14,-1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="42"/>
-    </row>
-    <row r="6" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="B5" s="38"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="42" t="str">
+      <c r="B6" s="38" t="str">
         <f>IFERROR(VLOOKUP(A6,$B$9:$C$14,2,FALSE),"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="39" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -4814,49 +4865,49 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="12.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="17" width="9.140625" customWidth="1"/>
+    <col min="1" max="17" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="17" x14ac:dyDescent="0.2"/>
-    <row r="18" x14ac:dyDescent="0.2"/>
-    <row r="19" x14ac:dyDescent="0.2"/>
-    <row r="20" x14ac:dyDescent="0.2"/>
-    <row r="21" x14ac:dyDescent="0.2"/>
-    <row r="22" x14ac:dyDescent="0.2"/>
-    <row r="23" x14ac:dyDescent="0.2"/>
-    <row r="24" x14ac:dyDescent="0.2"/>
-    <row r="25" x14ac:dyDescent="0.2"/>
-    <row r="26" x14ac:dyDescent="0.2"/>
-    <row r="27" x14ac:dyDescent="0.2"/>
-    <row r="28" x14ac:dyDescent="0.2"/>
-    <row r="29" x14ac:dyDescent="0.2"/>
-    <row r="30" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="14" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
@@ -4870,165 +4921,182 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="253" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="5" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="5.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="9.19921875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>2.95</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="31">
         <v>3.75</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>2.95</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="31">
         <v>3.65</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>3.75</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <v>3.95</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>3.25</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="31">
         <v>3.95</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="31">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>3.45</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="31">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="31">
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="45">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="31">
         <v>2</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="31">
         <v>2.4</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="31">
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="45">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <v>3.95</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="31">
         <v>4.75</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <v>5.15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" s="37" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:7" s="34" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="44">
+        <f>MATCH(B14,$B$4:$B$10,0)</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5043,165 +5111,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="5" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="5.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="9.19921875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>2.95</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="31">
         <v>3.75</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>2.95</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="31">
         <v>3.65</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>3.75</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <v>3.95</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>3.25</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="31">
         <v>3.95</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="31">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>3.45</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="31">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="31">
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="31">
         <v>2</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="31">
         <v>2.4</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="31">
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <v>3.95</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="31">
         <v>4.75</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <v>5.15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" s="37" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:7" s="34" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="49"/>
+      <c r="C14" s="44">
+        <f>MATCH(B14,$B$3:$E$3,0)</f>
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5217,72 +5288,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="12.75" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="11" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.796875" customWidth="1"/>
+    <col min="2" max="11" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="9:9" ht="14" x14ac:dyDescent="0.2">
       <c r="I32" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="9:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:9" ht="15" x14ac:dyDescent="0.2">
       <c r="I33" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="9:9" ht="14" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I33" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
@@ -5297,169 +5368,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B2" zoomScale="248" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="5" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="5.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" style="5" customWidth="1"/>
+    <col min="3" max="5" width="9.19921875" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="31">
         <v>2.95</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="31">
         <v>3.75</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>2.95</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="31">
         <v>3.65</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="31">
         <v>3.75</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="31">
         <v>3.95</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <v>4.25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="45"/>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>3.25</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="31">
         <v>3.95</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="31">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="7" t="s">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="31">
         <v>3.45</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="31">
         <v>4.1500000000000004</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="31">
         <v>4.55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="31">
         <v>2</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="31">
         <v>2.4</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="31">
         <v>2.75</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="31">
         <v>3.95</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="31">
         <v>4.75</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <v>5.15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:7" s="37" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="1:7" s="34" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="38"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14" s="35">
+        <f>INDEX($C$4:$E$10,4,2)</f>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>7</v>
+      </c>
+      <c r="C15" s="5">
+        <f>INDEX($D$4:$D$10,4)</f>
+        <v>3.95</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>68</v>
